--- a/excel/collective/zestawy_dla_uczniow/zestaw_012.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_012.xlsx
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>Oliwia Sadowska</t>
-  </si>
-  <si>
-    <t>Szymon Jankowski</t>
-  </si>
-  <si>
-    <t>Natalia Górska</t>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Julia Maciejewska</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,40</t>
+  </si>
+  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>11,90</t>
+    <t>13,30</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,80</t>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>18,80</t>
   </si>
   <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,90</t>
+    <t>2,30</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,70</t>
+    <t>6,30</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>25,04</t>
+    <t>14,38</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>24,86</t>
+    <t>26,81</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>27,89</t>
+    <t>2,69</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>12,03</t>
+    <t>26,54</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>23,70</t>
+    <t>11,68</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>10,61</t>
-  </si>
-  <si>
-    <t>11,51</t>
-  </si>
-  <si>
-    <t>10,27</t>
-  </si>
-  <si>
-    <t>19,42</t>
-  </si>
-  <si>
-    <t>25,97</t>
+    <t>9,62</t>
+  </si>
+  <si>
+    <t>2,04</t>
+  </si>
+  <si>
+    <t>11,71</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>14,17</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>14,83</t>
-  </si>
-  <si>
-    <t>7,84</t>
-  </si>
-  <si>
-    <t>20,60</t>
-  </si>
-  <si>
-    <t>10,31</t>
-  </si>
-  <si>
-    <t>23,62</t>
+    <t>6,88</t>
+  </si>
+  <si>
+    <t>6,41</t>
+  </si>
+  <si>
+    <t>12,85</t>
+  </si>
+  <si>
+    <t>13,37</t>
+  </si>
+  <si>
+    <t>29,29</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,43 +340,37 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Kacper</t>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Filip</t>
   </si>
   <si>
     <t>Lewandowski</t>
   </si>
   <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Wilk</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -412,121 +406,127 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>10.09.2005</t>
-  </si>
-  <si>
-    <t>11 401,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kaczmarek</t>
-  </si>
-  <si>
-    <t>28.10.1978</t>
-  </si>
-  <si>
-    <t>9 100,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>17.08.1976</t>
-  </si>
-  <si>
-    <t>13 704,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wojciechowski</t>
-  </si>
-  <si>
-    <t>17.10.1983</t>
-  </si>
-  <si>
-    <t>8 428,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Mazur</t>
-  </si>
-  <si>
-    <t>13.06.1980</t>
-  </si>
-  <si>
-    <t>10 462,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>15.02.1983</t>
-  </si>
-  <si>
-    <t>13 148,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Wilk</t>
-  </si>
-  <si>
-    <t>01.05.1984</t>
-  </si>
-  <si>
-    <t>8 804,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Piekarska</t>
-  </si>
-  <si>
-    <t>15.08.1998</t>
-  </si>
-  <si>
-    <t>5 140,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>28.09.1995</t>
-  </si>
-  <si>
-    <t>10 144,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>14.03.1986</t>
-  </si>
-  <si>
-    <t>2 977,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
-  </si>
-  <si>
-    <t>24.05.1999</t>
-  </si>
-  <si>
-    <t>4 885,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Borkowska</t>
-  </si>
-  <si>
-    <t>23.02.2005</t>
-  </si>
-  <si>
-    <t>10 195,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Lis</t>
-  </si>
-  <si>
-    <t>22.10.1976</t>
-  </si>
-  <si>
-    <t>11 685,00 zł</t>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>08.09.1980</t>
+  </si>
+  <si>
+    <t>4 093,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>07.12.1981</t>
+  </si>
+  <si>
+    <t>4 060,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kwiatkowski</t>
+  </si>
+  <si>
+    <t>21.05.1996</t>
+  </si>
+  <si>
+    <t>10 056,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
+  </si>
+  <si>
+    <t>24.11.1988</t>
+  </si>
+  <si>
+    <t>7 879,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Dąbrowski</t>
+  </si>
+  <si>
+    <t>03.04.1998</t>
+  </si>
+  <si>
+    <t>6 741,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wojciechowski</t>
+  </si>
+  <si>
+    <t>16.06.2003</t>
+  </si>
+  <si>
+    <t>11 168,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kwiatkowski</t>
+  </si>
+  <si>
+    <t>03.06.1977</t>
+  </si>
+  <si>
+    <t>4 754,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Piekarska</t>
+  </si>
+  <si>
+    <t>12.02.2000</t>
+  </si>
+  <si>
+    <t>11 617,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>09.01.1978</t>
+  </si>
+  <si>
+    <t>11 275,00 zł</t>
+  </si>
+  <si>
+    <t>13.03.2005</t>
+  </si>
+  <si>
+    <t>7 482,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>01.02.2005</t>
+  </si>
+  <si>
+    <t>7 061,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>23.12.1977</t>
+  </si>
+  <si>
+    <t>3 268,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>03.10.1996</t>
+  </si>
+  <si>
+    <t>7 702,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>06.08.1988</t>
+  </si>
+  <si>
+    <t>8 752,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -598,334 +598,334 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 249,00 zł</t>
-  </si>
-  <si>
-    <t>1 424,00 zł</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>740,00 zł</t>
+  </si>
+  <si>
+    <t>932,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 248,00 zł</t>
+  </si>
+  <si>
+    <t>1 660,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>877,00 zł</t>
+  </si>
+  <si>
+    <t>1 193,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 358,00 zł</t>
+  </si>
+  <si>
+    <t>1 670,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 164,00 zł</t>
+  </si>
+  <si>
+    <t>1 583,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>529,00 zł</t>
+  </si>
+  <si>
+    <t>698,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 112,00 zł</t>
+  </si>
+  <si>
+    <t>1 257,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>1 113,00 zł</t>
+  </si>
+  <si>
+    <t>1 558,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 256,00 zł</t>
+  </si>
+  <si>
+    <t>1 495,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 364,00 zł</t>
+  </si>
+  <si>
+    <t>1 664,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>1 089,00 zł</t>
+  </si>
+  <si>
+    <t>1 263,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 016,00 zł</t>
+  </si>
+  <si>
+    <t>1 199,00 zł</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 214,00 zł</t>
+  </si>
+  <si>
+    <t>1 445,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 381,00 zł</t>
+  </si>
+  <si>
+    <t>1 781,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 361,00 zł</t>
+  </si>
+  <si>
+    <t>1 756,00 zł</t>
   </si>
   <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 271,00 zł</t>
-  </si>
-  <si>
-    <t>1 589,00 zł</t>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>1 814,00 zł</t>
+  </si>
+  <si>
+    <t>1 373,00 zł</t>
+  </si>
+  <si>
+    <t>1 908,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 111,00 zł</t>
+  </si>
+  <si>
+    <t>1 455,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 071,00 zł</t>
+  </si>
+  <si>
+    <t>1 478,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>1 035,00 zł</t>
+  </si>
+  <si>
+    <t>1 242,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>1 134,00 zł</t>
+  </si>
+  <si>
+    <t>1 554,00 zł</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 094,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 029,00 zł</t>
-  </si>
-  <si>
-    <t>1 420,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 376,00 zł</t>
-  </si>
-  <si>
-    <t>1 569,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 039,00 zł</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>1 063,00 zł</t>
+  </si>
+  <si>
+    <t>1 467,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 270,00 zł</t>
+  </si>
+  <si>
+    <t>1 702,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>842,00 zł</t>
+  </si>
+  <si>
+    <t>985,00 zł</t>
+  </si>
+  <si>
+    <t>506,00 zł</t>
+  </si>
+  <si>
+    <t>703,00 zł</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>575,00 zł</t>
-  </si>
-  <si>
-    <t>638,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>687,00 zł</t>
-  </si>
-  <si>
-    <t>962,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
+    <t>1 194,00 zł</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>708,00 zł</t>
-  </si>
-  <si>
-    <t>857,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
-    <t>1 525,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>673,00 zł</t>
-  </si>
-  <si>
-    <t>855,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 425,00 zł</t>
-  </si>
-  <si>
-    <t>1 838,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 622,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 304,00 zł</t>
-  </si>
-  <si>
-    <t>1 643,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>1 596,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>618,00 zł</t>
-  </si>
-  <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>1 722,00 zł</t>
-  </si>
-  <si>
-    <t>1 460,00 zł</t>
-  </si>
-  <si>
-    <t>1 621,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 268,00 zł</t>
-  </si>
-  <si>
-    <t>1 648,00 zł</t>
-  </si>
-  <si>
-    <t>858,00 zł</t>
-  </si>
-  <si>
-    <t>1 115,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>875,00 zł</t>
-  </si>
-  <si>
-    <t>989,00 zł</t>
-  </si>
-  <si>
-    <t>980,00 zł</t>
-  </si>
-  <si>
-    <t>1 137,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>518,00 zł</t>
-  </si>
-  <si>
-    <t>704,00 zł</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>1 522,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>930,00 zł</t>
-  </si>
-  <si>
-    <t>1 256,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>817,00 zł</t>
-  </si>
-  <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>944,00 zł</t>
-  </si>
-  <si>
-    <t>1 284,00 zł</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>1 875,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 295,00 zł</t>
-  </si>
-  <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 482,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
+    <t>1 017,00 zł</t>
+  </si>
+  <si>
+    <t>1 129,00 zł</t>
+  </si>
+  <si>
+    <t>1 154,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1482,19 +1482,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1503,19 +1503,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1524,16 +1524,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1545,10 +1545,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
         <v>6</v>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1566,16 +1566,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1587,19 +1587,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1608,19 +1608,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1629,16 +1629,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -1650,19 +1650,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
         <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1671,19 +1671,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1692,19 +1692,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1713,16 +1713,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1877,7 +1877,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1907,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1922,7 +1922,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2039,7 +2039,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2051,7 +2051,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2063,7 +2063,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2075,7 +2075,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2087,7 +2087,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2147,7 +2147,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2171,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2183,7 +2183,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2231,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2243,7 +2243,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2255,7 +2255,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2267,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2279,7 +2279,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2313,10 +2313,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2422,25 +2422,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
         <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2448,31 +2448,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2480,22 +2480,22 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
@@ -2504,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2512,10 +2512,10 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2527,16 +2527,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2544,31 +2544,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2582,130 +2582,66 @@
         <v>116</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
         <v>6</v>
       </c>
       <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,10 +2654,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,7 +2669,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2743,199 +2679,202 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>173</v>
@@ -2943,9 +2882,17 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2964,10 +2911,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3092,22 +3039,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3115,22 +3062,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3138,22 +3085,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3161,22 +3108,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3184,22 +3131,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3207,22 +3154,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3230,22 +3177,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3253,22 +3200,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3276,22 +3223,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3299,22 +3246,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3322,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>245</v>
@@ -3334,10 +3281,10 @@
         <v>247</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3345,22 +3292,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3368,22 +3315,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3391,22 +3338,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3414,22 +3361,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3437,22 +3384,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3460,22 +3407,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3483,22 +3430,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3506,22 +3453,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3529,22 +3476,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3552,22 +3499,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3575,22 +3522,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3598,22 +3545,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3621,22 +3568,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3644,22 +3591,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3667,22 +3614,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3690,22 +3637,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3713,55 +3660,40 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>301</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>169</v>
+      <c r="A48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>173</v>
@@ -3769,7 +3701,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>173</v>
@@ -3777,7 +3709,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>173</v>
@@ -3785,17 +3717,9 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" s="14" t="s">
         <v>173</v>
       </c>
     </row>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_012.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_012.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 12 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 12 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,40</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>13,30</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,70</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>18,80</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,30</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,30</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>14,38</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>26,81</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>2,69</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>26,54</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>11,68</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>9,62</t>
-  </si>
-  <si>
-    <t>2,04</t>
-  </si>
-  <si>
-    <t>11,71</t>
-  </si>
-  <si>
-    <t>22,23</t>
-  </si>
-  <si>
-    <t>14,17</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>6,88</t>
-  </si>
-  <si>
-    <t>6,41</t>
-  </si>
-  <si>
-    <t>12,85</t>
-  </si>
-  <si>
-    <t>13,37</t>
-  </si>
-  <si>
-    <t>29,29</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -412,123 +334,81 @@
     <t>08.09.1980</t>
   </si>
   <si>
-    <t>4 093,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Zieliński</t>
   </si>
   <si>
     <t>07.12.1981</t>
   </si>
   <si>
-    <t>4 060,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kwiatkowski</t>
   </si>
   <si>
     <t>21.05.1996</t>
   </si>
   <si>
-    <t>10 056,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Rogalska</t>
   </si>
   <si>
     <t>24.11.1988</t>
   </si>
   <si>
-    <t>7 879,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Dąbrowski</t>
   </si>
   <si>
     <t>03.04.1998</t>
   </si>
   <si>
-    <t>6 741,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wojciechowski</t>
   </si>
   <si>
     <t>16.06.2003</t>
   </si>
   <si>
-    <t>11 168,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kwiatkowski</t>
   </si>
   <si>
     <t>03.06.1977</t>
   </si>
   <si>
-    <t>4 754,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Piekarska</t>
   </si>
   <si>
     <t>12.02.2000</t>
   </si>
   <si>
-    <t>11 617,00 zł</t>
-  </si>
-  <si>
     <t>Jan Woźniak</t>
   </si>
   <si>
     <t>09.01.1978</t>
   </si>
   <si>
-    <t>11 275,00 zł</t>
-  </si>
-  <si>
     <t>13.03.2005</t>
   </si>
   <si>
-    <t>7 482,00 zł</t>
-  </si>
-  <si>
     <t>Maja Malinowska</t>
   </si>
   <si>
     <t>01.02.2005</t>
   </si>
   <si>
-    <t>7 061,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>23.12.1977</t>
   </si>
   <si>
-    <t>3 268,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wiśniewski</t>
   </si>
   <si>
     <t>03.10.1996</t>
   </si>
   <si>
-    <t>7 702,00 zł</t>
-  </si>
-  <si>
     <t>Anna Piekarska</t>
   </si>
   <si>
     <t>06.08.1988</t>
   </si>
   <si>
-    <t>8 752,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -541,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -604,12 +481,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>740,00 zł</t>
-  </si>
-  <si>
-    <t>932,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -622,12 +493,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 248,00 zł</t>
-  </si>
-  <si>
-    <t>1 660,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -637,12 +502,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>877,00 zł</t>
-  </si>
-  <si>
-    <t>1 193,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -655,12 +514,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 670,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -670,12 +523,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -685,12 +532,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>529,00 zł</t>
-  </si>
-  <si>
-    <t>698,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -700,24 +541,12 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 257,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
-    <t>1 558,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -727,12 +556,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 256,00 zł</t>
-  </si>
-  <si>
-    <t>1 495,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -742,190 +565,76 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 089,00 zł</t>
-  </si>
-  <si>
-    <t>1 263,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
-    <t>1 199,00 zł</t>
-  </si>
-  <si>
     <t>luty</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 214,00 zł</t>
-  </si>
-  <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 781,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
-    <t>1 756,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
-    <t>1 814,00 zł</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>1 908,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 071,00 zł</t>
-  </si>
-  <si>
-    <t>1 478,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>1 035,00 zł</t>
-  </si>
-  <si>
-    <t>1 242,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>1 134,00 zł</t>
-  </si>
-  <si>
-    <t>1 554,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 039,00 zł</t>
-  </si>
-  <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>1 063,00 zł</t>
-  </si>
-  <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 702,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>842,00 zł</t>
-  </si>
-  <si>
-    <t>985,00 zł</t>
-  </si>
-  <si>
-    <t>506,00 zł</t>
-  </si>
-  <si>
-    <t>703,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 194,00 zł</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 017,00 zł</t>
-  </si>
-  <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 154,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -947,7 +656,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1004,14 +715,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1022,8 +733,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1054,30 +765,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,7 +1092,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1455,25 +1167,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1496,7 +1208,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1517,7 +1229,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1538,7 +1250,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1559,7 +1271,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1580,7 +1292,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1601,7 +1313,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1622,7 +1334,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1643,7 +1355,7 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1664,7 +1376,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1685,7 +1397,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1706,7 +1418,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1727,27 +1439,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1781,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1801,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1811,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1841,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.4</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13.3</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.7</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18.8</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.3</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6.3</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1966,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1991,113 +1693,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>14.38</v>
       </c>
       <c r="C15" s="3">
         <v>20</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>26.81</v>
       </c>
       <c r="C16" s="3">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2.69</v>
       </c>
       <c r="C17" s="3">
         <v>41</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>26.54</v>
       </c>
       <c r="C18" s="3">
         <v>30</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11.68</v>
       </c>
       <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2106,94 +1808,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>9.62</v>
       </c>
       <c r="C24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2.04</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>11.71</v>
       </c>
       <c r="C26" s="3">
         <v>11</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>22.23</v>
       </c>
       <c r="C27" s="3">
         <v>17</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>14.17</v>
       </c>
       <c r="C28" s="3">
         <v>33</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2202,98 +1904,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6.88</v>
       </c>
       <c r="C33" s="3">
         <v>17</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>6.41</v>
       </c>
       <c r="C34" s="3">
         <v>14</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>12.85</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>13.37</v>
       </c>
       <c r="C36" s="3">
         <v>25</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>29.29</v>
       </c>
       <c r="C37" s="3">
         <v>39</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2316,7 +2018,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2336,90 +2038,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2442,16 +2144,16 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2474,16 +2176,16 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2506,16 +2208,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2538,16 +2240,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2570,16 +2272,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2602,40 +2304,40 @@
       <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2668,233 +2370,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
+      <c r="A1" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>127</v>
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4093</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4060</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10056</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7879</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6741</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11168</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4754</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11617</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="C19" s="7">
+        <v>11275</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7482</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7061</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3268</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7702</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8752</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>169</v>
+      <c r="A27" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2929,86 +2625,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>191</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3016,22 +2712,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>740</v>
+      </c>
+      <c r="E16" s="7">
+        <v>932</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3039,22 +2735,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1248</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1660</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3062,22 +2758,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
+      </c>
+      <c r="D18" s="7">
+        <v>877</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1193</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3085,22 +2781,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1358</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1670</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3108,22 +2804,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1164</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1583</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3131,22 +2827,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="7">
+        <v>529</v>
+      </c>
+      <c r="E21" s="7">
+        <v>698</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3154,22 +2850,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1257</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3177,22 +2873,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>231</v>
+        <v>172</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1113</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1558</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3200,22 +2896,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1495</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3223,22 +2919,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1364</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1664</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3246,22 +2942,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>244</v>
+        <v>156</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1089</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1263</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3269,22 +2965,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>247</v>
+        <v>182</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1016</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1199</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3292,22 +2988,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1214</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1445</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3315,22 +3011,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1381</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1781</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3338,22 +3034,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1756</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3361,22 +3057,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>263</v>
+        <v>152</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1475</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1814</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3384,22 +3080,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>156</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1373</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1908</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3407,22 +3103,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>269</v>
+        <v>159</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1111</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1455</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3430,22 +3126,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1071</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1478</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3453,22 +3149,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>169</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1035</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1242</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3476,22 +3172,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>279</v>
+        <v>163</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1134</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1554</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3499,22 +3195,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>283</v>
+        <v>198</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1039</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1195</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3522,22 +3218,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>286</v>
+      <c r="D38" s="7">
+        <v>1063</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1467</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3545,22 +3241,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>289</v>
+        <v>200</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1270</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1702</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3568,22 +3264,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>202</v>
+      </c>
+      <c r="D40" s="7">
+        <v>842</v>
+      </c>
+      <c r="E40" s="7">
+        <v>985</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3591,22 +3287,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>295</v>
+        <v>166</v>
+      </c>
+      <c r="D41" s="7">
+        <v>506</v>
+      </c>
+      <c r="E41" s="7">
+        <v>703</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>296</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3614,22 +3310,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>264</v>
+        <v>186</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1194</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1373</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3637,22 +3333,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>300</v>
+        <v>204</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1017</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1129</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3660,68 +3356,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>301</v>
+        <v>198</v>
+      </c>
+      <c r="D44" s="7">
+        <v>842</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1154</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>169</v>
+      <c r="A47" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>302</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>303</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_012.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_012.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>Julia Maciejewska</t>
-  </si>
-  <si>
-    <t>Lena Olszewska</t>
-  </si>
-  <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>Maja Król</t>
+    <t>Amelia Olszewska</t>
+  </si>
+  <si>
+    <t>Zuzanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Mikołaj Kaczmarek</t>
+  </si>
+  <si>
+    <t>Aleksander Nowak</t>
+  </si>
+  <si>
+    <t>Julia Rogalska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 12 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,21 +149,21 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
     <t>Pędzelek</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,40 +266,46 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
   </si>
   <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Wilk</t>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -328,85 +341,52 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Zuzanna Jaworska</t>
-  </si>
-  <si>
-    <t>08.09.1980</t>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>Filip Krawczyk</t>
+  </si>
+  <si>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>Filip Jankowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>Amelia Górska</t>
+  </si>
+  <si>
+    <t>Wojciech Wojciechowski</t>
+  </si>
+  <si>
+    <t>Julia Czarnecka</t>
   </si>
   <si>
     <t>Jakub Zieliński</t>
   </si>
   <si>
-    <t>07.12.1981</t>
-  </si>
-  <si>
-    <t>Mikołaj Kwiatkowski</t>
-  </si>
-  <si>
-    <t>21.05.1996</t>
-  </si>
-  <si>
-    <t>Hanna Rogalska</t>
-  </si>
-  <si>
-    <t>24.11.1988</t>
-  </si>
-  <si>
-    <t>Wojciech Dąbrowski</t>
-  </si>
-  <si>
-    <t>03.04.1998</t>
-  </si>
-  <si>
-    <t>Jakub Wojciechowski</t>
-  </si>
-  <si>
-    <t>16.06.2003</t>
-  </si>
-  <si>
-    <t>Filip Kwiatkowski</t>
-  </si>
-  <si>
-    <t>03.06.1977</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>12.02.2000</t>
-  </si>
-  <si>
-    <t>Jan Woźniak</t>
-  </si>
-  <si>
-    <t>09.01.1978</t>
-  </si>
-  <si>
-    <t>13.03.2005</t>
-  </si>
-  <si>
-    <t>Maja Malinowska</t>
-  </si>
-  <si>
-    <t>01.02.2005</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>23.12.1977</t>
-  </si>
-  <si>
-    <t>Filip Wiśniewski</t>
-  </si>
-  <si>
-    <t>03.10.1996</t>
-  </si>
-  <si>
-    <t>Anna Piekarska</t>
-  </si>
-  <si>
-    <t>06.08.1988</t>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>Zuzanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Lena Borkowska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -421,7 +401,61 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Lena Zawadzka</t>
+  </si>
+  <si>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>Mikołaj Szymański</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>Julia Piekarska</t>
+  </si>
+  <si>
+    <t>Zuzanna Rogalska</t>
+  </si>
+  <si>
+    <t>Oliwia Olszewska</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -478,163 +512,130 @@
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
+    <t>Smartwatch</t>
   </si>
   <si>
     <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -706,7 +707,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,12 +730,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -765,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -776,13 +771,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1089,7 +1083,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1194,19 +1188,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1215,16 +1209,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1236,16 +1230,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1257,7 +1251,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1266,10 +1260,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1278,19 +1272,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1299,16 +1293,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>5</v>
@@ -1320,13 +1314,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
@@ -1341,16 +1335,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -1362,19 +1356,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1383,16 +1377,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1410,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
@@ -1425,10 +1419,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
@@ -1450,6 +1444,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1483,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1503,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1513,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1543,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5.4</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>17.2</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13.3</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7.5</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.7</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>8.6</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>18.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.2</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.3</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.3</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6.3</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.6</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1652,10 +1652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1668,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1693,27 +1693,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1721,85 +1721,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>14.38</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>27.78</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>26.81</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5.8</v>
       </c>
       <c r="C16" s="3">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2.69</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>22.17</v>
       </c>
       <c r="C17" s="3">
-        <v>41</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>26.54</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>18.9</v>
       </c>
       <c r="C18" s="3">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>11.68</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15.44</v>
       </c>
       <c r="C19" s="3">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1808,8 +1808,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1817,85 +1817,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>9.62</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>9.07</v>
       </c>
       <c r="C24" s="3">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2.04</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>21.8</v>
       </c>
       <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>11.71</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30.23</v>
       </c>
       <c r="C26" s="3">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>22.23</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>19.65</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>14.17</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>25.31</v>
       </c>
       <c r="C28" s="3">
-        <v>33</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1904,8 +1904,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1913,89 +1913,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>6.88</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>13.21</v>
       </c>
       <c r="C33" s="3">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>6.41</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>17.22</v>
       </c>
       <c r="C34" s="3">
-        <v>14</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>12.85</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>22.48</v>
       </c>
       <c r="C35" s="3">
-        <v>7</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>13.37</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1.93</v>
       </c>
       <c r="C36" s="3">
-        <v>25</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>29.29</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>17.02</v>
       </c>
       <c r="C37" s="3">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2015,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2038,111 +2046,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2153,28 +2161,28 @@
         <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2182,31 +2190,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
       <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
-      </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2214,31 +2222,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2246,28 +2254,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2278,19 +2286,19 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
         <v>6</v>
@@ -2302,48 +2310,112 @@
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2356,10 +2428,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2370,227 +2442,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>93</v>
+      <c r="A1" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4093</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13672</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4060</v>
+        <v>107</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11547</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="7">
-        <v>10056</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5712</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="7">
-        <v>7879</v>
+      <c r="B14" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5557</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6741</v>
+      <c r="B15" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12561</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11168</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6021</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4754</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6385</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11617</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2868</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11275</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7482</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4529</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7061</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6431</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3268</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7301</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7702</v>
+        <v>118</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4580</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C24" s="8">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C26" s="8">
+        <v>4375</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="6"/>
+      <c r="A29" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2607,10 +2701,194 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3">
+        <v>137</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3">
+        <v>97</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>182</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3">
+        <v>147</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3">
+        <v>190</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3">
+        <v>172</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3">
+        <v>139</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3">
+        <v>149</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3">
+        <v>148</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3">
+        <v>95</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="3">
+        <v>167</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="3">
+        <v>185</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="3">
+        <v>175</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2625,86 +2903,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2712,22 +2990,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>740</v>
-      </c>
-      <c r="E16" s="7">
-        <v>932</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1057</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1395</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2735,22 +3013,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1248</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1660</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1315</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1736</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2758,22 +3036,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="7">
-        <v>877</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1193</v>
+        <v>170</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1322</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1771</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2781,19 +3059,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1670</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1416</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1685</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>165</v>
@@ -2804,22 +3082,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1164</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1583</v>
+        <v>176</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1417</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1729</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2827,22 +3105,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>529</v>
-      </c>
-      <c r="E21" s="7">
-        <v>698</v>
+        <v>179</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1003</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1274</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2850,22 +3128,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1257</v>
+        <v>183</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1174</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1327</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2873,22 +3151,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1113</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1558</v>
+        <v>185</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1236</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1397</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2896,22 +3174,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1256</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1495</v>
+        <v>187</v>
+      </c>
+      <c r="D24" s="8">
+        <v>515</v>
+      </c>
+      <c r="E24" s="8">
+        <v>608</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2919,22 +3197,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1364</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1664</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1214</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1663</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2942,22 +3220,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1089</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1263</v>
+        <v>179</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1496</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1795</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2965,22 +3243,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1016</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1199</v>
+        <v>185</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1295</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1580</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2988,22 +3266,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1214</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1445</v>
+        <v>195</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1421</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1933</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3011,22 +3289,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1371</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1892</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="7">
-        <v>1381</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1781</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3034,22 +3312,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1361</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1756</v>
+        <v>167</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1340</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1809</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3057,22 +3335,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1475</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1814</v>
+        <v>198</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1457</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1923</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3080,19 +3358,19 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1373</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1908</v>
+        <v>179</v>
+      </c>
+      <c r="D32" s="8">
+        <v>733</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1012</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>192</v>
@@ -3103,22 +3381,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1111</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1455</v>
+        <v>195</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2025</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3126,22 +3404,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1071</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1478</v>
+        <v>201</v>
+      </c>
+      <c r="D34" s="8">
+        <v>565</v>
+      </c>
+      <c r="E34" s="8">
+        <v>655</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3149,22 +3427,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1405</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1686</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1035</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1242</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3172,22 +3450,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1134</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1554</v>
+        <v>176</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1042</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1386</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3198,19 +3476,19 @@
         <v>162</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1039</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1195</v>
+        <v>203</v>
+      </c>
+      <c r="D37" s="8">
+        <v>641</v>
+      </c>
+      <c r="E37" s="8">
+        <v>827</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3218,22 +3496,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1063</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1467</v>
+        <v>179</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1366</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1544</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3241,22 +3519,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1270</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1702</v>
+        <v>187</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1043</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1345</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3264,150 +3542,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="7">
-        <v>842</v>
-      </c>
-      <c r="E40" s="7">
-        <v>985</v>
+        <v>190</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1278</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1725</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="7">
-        <v>506</v>
-      </c>
-      <c r="E41" s="7">
-        <v>703</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1194</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1373</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1017</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1129</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>201</v>
+      <c r="A43" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="7">
-        <v>842</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1154</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
